--- a/Bas24-27.xlsx
+++ b/Bas24-27.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyFirstProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="130">
   <si>
     <t>Outbound interfaces</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Hyperion</t>
+  </si>
+  <si>
+    <t>yy</t>
   </si>
 </sst>
 </file>
@@ -728,29 +731,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -758,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -766,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -774,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -782,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -793,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -801,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -809,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -817,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -828,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -839,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -847,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -858,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -866,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
